--- a/data/excel_doc/pathologycheck_id_lims.xlsx
+++ b/data/excel_doc/pathologycheck_id_lims.xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2308140015</t>
+          <t>GS2308150096</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/pathologycheck_id_lims.xlsx
+++ b/data/excel_doc/pathologycheck_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,13 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GS2308150096</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/pathologycheck_id_lims.xlsx
+++ b/data/excel_doc/pathologycheck_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,18 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS2309050065</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FB23950065-J022</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/pathologycheck_id_lims.xlsx
+++ b/data/excel_doc/pathologycheck_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309050065</t>
+          <t>GS2309050072</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB23950065-J022</t>
+          <t>FB23950072-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/pathologycheck_id_lims.xlsx
+++ b/data/excel_doc/pathologycheck_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309050072</t>
+          <t>GS2309060004</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB23950072-J022</t>
+          <t>FB23960004-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/pathologycheck_id_lims.xlsx
+++ b/data/excel_doc/pathologycheck_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309060004</t>
+          <t>GS2309070036</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB23960004-J022</t>
+          <t>FB23970030-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/pathologycheck_id_lims.xlsx
+++ b/data/excel_doc/pathologycheck_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,18 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GS2309070036</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FB23970030-J022</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/pathologycheck_id_lims.xlsx
+++ b/data/excel_doc/pathologycheck_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,18 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS2309080092</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FB23980092-J022</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/pathologycheck_id_lims.xlsx
+++ b/data/excel_doc/pathologycheck_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309080092</t>
+          <t>GS2309110001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB23980092-J022</t>
+          <t>FB239A0001-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/pathologycheck_id_lims.xlsx
+++ b/data/excel_doc/pathologycheck_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309110001</t>
+          <t>GS2309120057</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB239A0001-J022</t>
+          <t>FB239B0057-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/pathologycheck_id_lims.xlsx
+++ b/data/excel_doc/pathologycheck_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309120057</t>
+          <t>GS2309150034</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB239B0057-J022</t>
+          <t>FB239E0034-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/pathologycheck_id_lims.xlsx
+++ b/data/excel_doc/pathologycheck_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309150034</t>
+          <t>GS2309180002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB239E0034-J022</t>
+          <t>FB239H0002-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/pathologycheck_id_lims.xlsx
+++ b/data/excel_doc/pathologycheck_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309180002</t>
+          <t>GS2401150005</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB239H0002-J022</t>
+          <t>FB241E0005-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/pathologycheck_id_lims.xlsx
+++ b/data/excel_doc/pathologycheck_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2401150005</t>
+          <t>GS2310270044</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB241E0005-J022</t>
+          <t>FB230S0044-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/pathologycheck_id_lims.xlsx
+++ b/data/excel_doc/pathologycheck_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2310270044</t>
+          <t>GS2401160007</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB230S0044-J022</t>
+          <t>FB241F0007-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/pathologycheck_id_lims.xlsx
+++ b/data/excel_doc/pathologycheck_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2401160007</t>
+          <t>GS2404290625</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB241F0007-J022</t>
+          <t>FB244U0625-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/pathologycheck_id_lims.xlsx
+++ b/data/excel_doc/pathologycheck_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2404290625</t>
+          <t>GS2405210045</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB244U0625-J022</t>
+          <t>FB245L0045-J022</t>
         </is>
       </c>
     </row>
